--- a/mysql_table/ExpTable.xlsx
+++ b/mysql_table/ExpTable.xlsx
@@ -150,11 +150,14 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -819,7 +822,7 @@
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B2" activeCellId="0" sqref="B2:B31"/>
+      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -842,7 +845,7 @@
       <x:c r="A2">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="1">
+      <x:c r="B2" s="2">
         <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="1">
@@ -853,7 +856,7 @@
       <x:c r="A3">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="1">
+      <x:c r="B3" s="2">
         <x:v>50</x:v>
       </x:c>
       <x:c r="C3" s="1">
@@ -864,7 +867,7 @@
       <x:c r="A4">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B4" s="1">
+      <x:c r="B4" s="2">
         <x:f>B3+(B3*50/100)</x:f>
         <x:v>75</x:v>
       </x:c>
@@ -877,7 +880,7 @@
       <x:c r="A5">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B5" s="1">
+      <x:c r="B5" s="2">
         <x:f>B4+(B4*50/100)</x:f>
         <x:v>112.5</x:v>
       </x:c>
@@ -890,7 +893,7 @@
       <x:c r="A6">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B6" s="1">
+      <x:c r="B6" s="2">
         <x:f>B5+(B5*50/100)</x:f>
         <x:v>168.75</x:v>
       </x:c>
@@ -903,7 +906,7 @@
       <x:c r="A7">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B7" s="1">
+      <x:c r="B7" s="2">
         <x:f>B6+(B6*50/100)</x:f>
         <x:v>253.125</x:v>
       </x:c>
@@ -916,7 +919,7 @@
       <x:c r="A8">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B8" s="1">
+      <x:c r="B8" s="2">
         <x:f>B7+(B7*50/100)</x:f>
         <x:v>379.6875</x:v>
       </x:c>
@@ -929,7 +932,7 @@
       <x:c r="A9">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B9" s="1">
+      <x:c r="B9" s="2">
         <x:f>B8+(B8*50/100)</x:f>
         <x:v>569.53125</x:v>
       </x:c>
@@ -942,7 +945,7 @@
       <x:c r="A10">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B10" s="1">
+      <x:c r="B10" s="2">
         <x:f>B9+(B9*50/100)</x:f>
         <x:v>854.296875</x:v>
       </x:c>
@@ -955,7 +958,7 @@
       <x:c r="A11">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B11" s="1">
+      <x:c r="B11" s="2">
         <x:f>B10+(B10*40/100)</x:f>
         <x:v>1196.015625</x:v>
       </x:c>
@@ -968,7 +971,7 @@
       <x:c r="A12">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B12" s="1">
+      <x:c r="B12" s="2">
         <x:f t="shared" ref="B12:B21" si="1">B11+(B11*40/100)</x:f>
         <x:v>1674.421875</x:v>
       </x:c>
@@ -981,7 +984,7 @@
       <x:c r="A13">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B13" s="1">
+      <x:c r="B13" s="2">
         <x:f t="shared" si="1"/>
         <x:v>2344.1906250000002</x:v>
       </x:c>
@@ -994,7 +997,7 @@
       <x:c r="A14">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B14" s="1">
+      <x:c r="B14" s="2">
         <x:f t="shared" si="1"/>
         <x:v>3281.8668750000002</x:v>
       </x:c>
@@ -1007,7 +1010,7 @@
       <x:c r="A15">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B15" s="1">
+      <x:c r="B15" s="2">
         <x:f t="shared" si="1"/>
         <x:v>4594.613625</x:v>
       </x:c>
@@ -1020,7 +1023,7 @@
       <x:c r="A16">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B16" s="1">
+      <x:c r="B16" s="2">
         <x:f t="shared" si="1"/>
         <x:v>6432.4590749999998</x:v>
       </x:c>
@@ -1033,7 +1036,7 @@
       <x:c r="A17">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B17" s="1">
+      <x:c r="B17" s="2">
         <x:f t="shared" si="1"/>
         <x:v>9005.4427049999995</x:v>
       </x:c>
@@ -1046,7 +1049,7 @@
       <x:c r="A18">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B18" s="1">
+      <x:c r="B18" s="2">
         <x:f t="shared" si="1"/>
         <x:v>12607.619787</x:v>
       </x:c>
@@ -1059,7 +1062,7 @@
       <x:c r="A19">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B19" s="1">
+      <x:c r="B19" s="2">
         <x:f t="shared" si="1"/>
         <x:v>17650.667701800001</x:v>
       </x:c>
@@ -1072,7 +1075,7 @@
       <x:c r="A20">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="B20" s="1">
+      <x:c r="B20" s="2">
         <x:f t="shared" si="1"/>
         <x:v>24710.934782520002</x:v>
       </x:c>
@@ -1085,7 +1088,7 @@
       <x:c r="A21">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B21" s="1">
+      <x:c r="B21" s="2">
         <x:f t="shared" si="1"/>
         <x:v>34595.308695528001</x:v>
       </x:c>
@@ -1098,7 +1101,7 @@
       <x:c r="A22">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B22" s="1">
+      <x:c r="B22" s="2">
         <x:f>B21+(B21*20/100)</x:f>
         <x:v>41514.370434633602</x:v>
       </x:c>
@@ -1111,7 +1114,7 @@
       <x:c r="A23">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B23" s="1">
+      <x:c r="B23" s="2">
         <x:f t="shared" ref="B23:B31" si="2">B22+(B22*20/100)</x:f>
         <x:v>49817.244521560322</x:v>
       </x:c>
@@ -1124,7 +1127,7 @@
       <x:c r="A24">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B24" s="1">
+      <x:c r="B24" s="2">
         <x:f t="shared" si="2"/>
         <x:v>59780.693425872385</x:v>
       </x:c>
@@ -1137,7 +1140,7 @@
       <x:c r="A25">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B25" s="1">
+      <x:c r="B25" s="2">
         <x:f t="shared" si="2"/>
         <x:v>71736.832111046868</x:v>
       </x:c>
@@ -1150,7 +1153,7 @@
       <x:c r="A26">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B26" s="1">
+      <x:c r="B26" s="2">
         <x:f t="shared" si="2"/>
         <x:v>86084.198533256247</x:v>
       </x:c>
@@ -1163,7 +1166,7 @@
       <x:c r="A27">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B27" s="1">
+      <x:c r="B27" s="2">
         <x:f t="shared" si="2"/>
         <x:v>103301.0382399075</x:v>
       </x:c>
@@ -1176,7 +1179,7 @@
       <x:c r="A28">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B28" s="1">
+      <x:c r="B28" s="2">
         <x:f t="shared" si="2"/>
         <x:v>123961.245887889</x:v>
       </x:c>
@@ -1189,7 +1192,7 @@
       <x:c r="A29">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B29" s="1">
+      <x:c r="B29" s="2">
         <x:f t="shared" si="2"/>
         <x:v>148753.49506546679</x:v>
       </x:c>
@@ -1202,7 +1205,7 @@
       <x:c r="A30">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B30" s="1">
+      <x:c r="B30" s="2">
         <x:f t="shared" si="2"/>
         <x:v>178504.19407856016</x:v>
       </x:c>
@@ -1215,7 +1218,7 @@
       <x:c r="A31">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B31" s="1">
+      <x:c r="B31" s="2">
         <x:f t="shared" si="2"/>
         <x:v>214205.03289427218</x:v>
       </x:c>

--- a/mysql_table/ExpTable.xlsx
+++ b/mysql_table/ExpTable.xlsx
@@ -175,6 +175,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -257,6 +258,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -291,6 +293,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -335,6 +338,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -378,6 +382,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -462,6 +467,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -482,6 +488,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -512,6 +519,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -822,7 +830,7 @@
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B13" activeCellId="0" sqref="B13:B13"/>
+      <x:selection activeCell="E3" activeCellId="0" sqref="E3:E3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.75"/>
@@ -846,10 +854,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="2">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="1">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -860,7 +868,8 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="C3" s="1">
-        <x:v>60</x:v>
+        <x:f>C2+B3</x:f>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -873,7 +882,7 @@
       </x:c>
       <x:c r="C4" s="1">
         <x:f>C3+B4</x:f>
-        <x:v>135</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -886,7 +895,7 @@
       </x:c>
       <x:c r="C5" s="1">
         <x:f t="shared" ref="C5:C31" si="0">C4+B5</x:f>
-        <x:v>247.5</x:v>
+        <x:v>240.5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -899,7 +908,7 @@
       </x:c>
       <x:c r="C6" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>416.25</x:v>
+        <x:v>409.25</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -912,7 +921,7 @@
       </x:c>
       <x:c r="C7" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>669.375</x:v>
+        <x:v>662.375</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -925,7 +934,7 @@
       </x:c>
       <x:c r="C8" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>1049.0625</x:v>
+        <x:v>1042.0625</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -938,7 +947,7 @@
       </x:c>
       <x:c r="C9" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>1618.59375</x:v>
+        <x:v>1611.59375</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -951,7 +960,7 @@
       </x:c>
       <x:c r="C10" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>2472.890625</x:v>
+        <x:v>2465.890625</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -964,7 +973,7 @@
       </x:c>
       <x:c r="C11" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>3668.90625</x:v>
+        <x:v>3661.90625</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -977,7 +986,7 @@
       </x:c>
       <x:c r="C12" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>5343.328125</x:v>
+        <x:v>5336.328125</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -990,7 +999,7 @@
       </x:c>
       <x:c r="C13" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>7687.5187500000002</x:v>
+        <x:v>7680.5187500000002</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1003,7 +1012,7 @@
       </x:c>
       <x:c r="C14" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>10969.385625000001</x:v>
+        <x:v>10962.385625000001</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1016,7 +1025,7 @@
       </x:c>
       <x:c r="C15" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>15563.999250000001</x:v>
+        <x:v>15556.999250000001</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1029,7 +1038,7 @@
       </x:c>
       <x:c r="C16" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>21996.458325</x:v>
+        <x:v>21989.458325</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1042,7 +1051,7 @@
       </x:c>
       <x:c r="C17" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>31001.901030000001</x:v>
+        <x:v>30994.901030000001</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1055,7 +1064,7 @@
       </x:c>
       <x:c r="C18" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>43609.520816999997</x:v>
+        <x:v>43602.520816999997</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1068,7 +1077,7 @@
       </x:c>
       <x:c r="C19" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>61260.188518800001</x:v>
+        <x:v>61253.188518800001</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1081,7 +1090,7 @@
       </x:c>
       <x:c r="C20" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>85971.123301320011</x:v>
+        <x:v>85964.123301320011</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1094,7 +1103,7 @@
       </x:c>
       <x:c r="C21" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>120566.43199684801</x:v>
+        <x:v>120559.43199684801</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1107,7 +1116,7 @@
       </x:c>
       <x:c r="C22" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>162080.8024314816</x:v>
+        <x:v>162073.8024314816</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1120,7 +1129,7 @@
       </x:c>
       <x:c r="C23" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>211898.04695304192</x:v>
+        <x:v>211891.04695304192</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1133,7 +1142,7 @@
       </x:c>
       <x:c r="C24" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>271678.74037891428</x:v>
+        <x:v>271671.74037891428</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1146,7 +1155,7 @@
       </x:c>
       <x:c r="C25" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>343415.57248996117</x:v>
+        <x:v>343408.57248996117</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1159,7 +1168,7 @@
       </x:c>
       <x:c r="C26" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>429499.77102321741</x:v>
+        <x:v>429492.77102321741</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1172,7 +1181,7 @@
       </x:c>
       <x:c r="C27" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>532800.80926312495</x:v>
+        <x:v>532793.80926312495</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1185,7 +1194,7 @@
       </x:c>
       <x:c r="C28" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>656762.05515101389</x:v>
+        <x:v>656755.05515101389</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1198,7 +1207,7 @@
       </x:c>
       <x:c r="C29" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>805515.55021648062</x:v>
+        <x:v>805508.55021648062</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1211,7 +1220,7 @@
       </x:c>
       <x:c r="C30" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>984019.74429504084</x:v>
+        <x:v>984012.74429504084</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1224,11 +1233,11 @@
       </x:c>
       <x:c r="C31" s="1">
         <x:f t="shared" si="0"/>
-        <x:v>1198224.777189313</x:v>
+        <x:v>1198217.777189313</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>